--- a/finetuning/it_datasets/it_dataset/it_kelibia_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_kelibia_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Story coffee kelibia located at 8090 Avenu Militant Abdelkader Dardouri. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.848013989197, 11.098336416111. For more details, visit their website at  or call them at 56 066 947.</t>
+          <t>Story coffee kelibia is a cafe located in Kelibia, Tunisia. It has a 5.0 rating based on 4 reviews. The cafe is open 24 hours a day and is located at the address Story coffee kelibia, 8090 Avenu Militant Abdelkader Dardouri, Kelibia. The cafe's main category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -759,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Workshop Bistro located at Av. de l'environnement, Kelibia. 
-This destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. For more details, visit their website at https://www.google.com/maps/place/Workshop+Bistro/data=!4m7!3m6!1s0x131d33b89234ea45:0xb5a3de3ba875f1a5!8m2!3d36.8396227!4d11.1013993!16s%2Fg%2F11hcw2sbx3!19sChIJReo0krgzHRMRpfF1qDveo7U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 46 227 400.</t>
+          <t>Nestled in the vibrant city of Kelibia, Workshop Bistro awaits with its cozy ambiance and delectable offerings. This cafe is renowned for its delectable cuisine and warm hospitality. Located at coordinates (36.835428078688, 11.091149597327), patrons can easily find this popular establishment.</t>
         </is>
       </c>
     </row>
@@ -860,7 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great Cafe, check out L'instant Cafe located at 8090 Av. de Martyrs. This top-rated destination is perfect for Cafe lovers and has a rating of 4.5. It's open during these hours: 08:00-19:00 but closed on []. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/L%E2%80%99instant+Caf%C3%A9/data=!4m7!3m6!1s0x131d33dc949e2bf9:0xf48349548abb17cc!8m2!3d36.8372911!4d11.1101721!16s%2Fg%2F11n0cxpkgk!19sChIJ-SuelNwzHRMRzBe7ilRJg_Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>L'instant Cafe is a highly rated cafe located in Kelibia, Tunisia. It offers a cozy atmosphere and serves delicious breakfasts, as evidenced by the numerous positive reviews mentioning "petit dejeuner." The cafe is open from 8 am to 7 pm, providing locals and tourists with a convenient place to relax and enjoy a cup of coffee or a light meal.</t>
         </is>
       </c>
     </row>
@@ -959,9 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something to do, check out Magnifique coffee located at Rue Clupea, Kelibia 8090. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 36.840640203809, 11.115995219474.</t>
+          <t>Magnifique coffee is a cafe located in Kelibia, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at Rue Clupea, Kelibia 8090. It is open from 07:00-01:00 and is closed on Sunday. The cafe has a 4.6-star rating on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1054,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Dolce Vita Glace italienne located at 8090 Av. de Martyrs, Kelibia 8090. This popular destination is perfect for Cafe lovers and offers a range of related categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/Dolce+Vita+Glace+italienne/data=!4m7!3m6!1s0x131d33c1a53a78a7:0x54ef239f2c49107!8m2!3d36.8446083!4d11.0959741!16s%2Fg%2F11c0tb21st!19sChIJp3g6pcEzHRMRB5HE8jnyTgU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Dolce Vita Glace italienne is a café located in Kelibia, Tunisia (lon: 11.111146140921, lat: 36.836660524289). It opens from 06:00 to 00:00 and is known for its delicious Italian ice cream (glaces) among its 13 reviews.</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, head to Coffee Shop Kelibia located at V35R+P7R Coffee Shop Kelibia, Kelibia. Open from 5 am to 12 am daily, this popular spot has earned an impressive rating of 4.7. Get directions using the GPS coordinates: 36.84757, 11.09386. For more info, call 25 104 041.</t>
+          <t>Coffee Shop Kelibia is a highly-rated cafe located in Kelibia, Tunisia. It operates from 5 AM to midnight every day and is known for its excellent service and atmosphere. With a 4.7-star rating based on 12 reviews, Coffee Shop Kelibia is a popular spot for locals and tourists alike. It is conveniently situated at V35R+P7R, making it easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Cafe Charbabbou-Chez Jhonny located at 8090 Rue Ennasim, Kelibia 8090. This must-visit spot offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Charbabbou-Chez+Jhonny/data=!4m7!3m6!1s0x131d33b784f105fb:0x15adb742054adb7c!8m2!3d36.8380011!4d11.1056885!16s%2Fg%2F11f3r0t10y!19sChIJ-wXxhLczHRMRfNtKBUK3rRU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 854 555.</t>
+          <t>Cafe Charbabbou-Chez Jhonny in Kelibia (36.8363146, 11.1113262) is a highly-rated (4.8/5) cafe known for its warm and inviting atmosphere. Open daily from 7 AM to midnight, it's the perfect spot to relax and enjoy a delicious cup of coffee or tea. Cafe Charbabbou-Chez Jhonny welcomes you with open arms and awaits your visit!</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Cafe El Kssar located at R3RQ+WF8 Cafe El Kssar, Unnamed Road, Kelibia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 05:30-00:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at or call them at 97 979 400.</t>
+          <t>Cafe El Kssar is a cafe located in Kelibia, Tunisia. The cafe is known for its delicious coffee and pastries. Cafe El Kssar is a great place to relax and enjoy a cup of coffee with friends. The cafe is open from 5:30am to 12:00am, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -1468,11 +1462,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a great cafe, Salon de the Mallorca is the place to go. 
-Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, Kelibia, this top-rated destination is perfect for Cafe lovers.
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. 
-For more details, visit their website or call them at 93 767 881.</t>
+          <t>Nestled in the heart of Kelibia, Salon de the Mallorca invites you to savor delightful coffee and tea creations in a charming ambiance. Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, the cafe has earned a commendable 4.3-star rating based on 6 reviews. With its convenient hours and friendly staff, Salon de the Mallorca is the perfect spot to unwind and enjoy a moment of indulgence.</t>
         </is>
       </c>
     </row>
@@ -1571,9 +1561,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Kelibia, check out Cafe Aziz located at R3XX+JCR Cafe Aziz. 
-This top-rated destination is perfect for Cafe enthusiasts. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-10:00. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>Café Aziz is a highly-rated café located in Kelibia, Tunisia. Situated at (36.8472589, 11.091058), the café offers a warm and inviting atmosphere for customers to enjoy their favorite beverages. With a rating of 4.6 out of 5 based on 5 reviews, Café Aziz is a popular spot among locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1660,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Kelibia, check out Cafe Farabi at 103 C27. This top-rated spot is perfect for Cafe lovers. With a rating of 4.6, it's a must-visit location. It's open during these hours: 07:30-22:00.  To get there, use these GPS coordinates: 36.847461866537, 11.083275342698.</t>
+          <t>Located in the heart of Kelibia, Tunisia (36.847461866537, 11.083275342698), Cafe Farabi is a popular spot for locals and tourists alike. Serving delicious coffee, pastries, and a variety of snacks, the cafe offers a cozy and inviting atmosphere. With a rating of 4.6 stars and numerous positive reviews, Cafe Farabi is highly recommended for anyone seeking a great cup of coffee and a relaxing ambiance.</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1759,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a top-rated cafe, check out CAFE CORNICHE located at R3QX+66M CAFE CORNICHE, Av. de l'environnement, Kelibia 8090. This cafe has a rating of 4.4 and offers a range of categories to choose from. To get there, use these GPS coordinates: 36.834792105762, 11.089380180852. For more details, visit their website or call them at 24 074 279.</t>
+          <t>CAFE CORNICHE is a cafe located in Kelibia, Tunisia. It has a 4.4-star rating on Google, with 5 reviews. The cafe is open during the week and closed on Sundays. It is located at R3QX+66M CAFE CORNICHE, Av. de l'environnement, Kelibia 8090.</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1850,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out El Barraka located at R4P6+GHM El Barraka, Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/El+Barraka/data=!4m7!3m6!1s0x131d33b425565c0b:0x7cac4cb001fc1bba!8m2!3d36.8363348!4d11.1114235!16s%2Fg%2F11b75fwpsh!19sChIJC1xWJbQzHRMRuhv8AbBMrHw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>**El Barraka** is a popular cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks, making it a great place to relax and unwind. The cafe is conveniently located on Av. de Martyrs, with coordinates (36.836660524289, 11.111146140921). With its cozy ambiance and friendly staff, El Barraka is a perfect spot to meet friends, catch up on work, or simply enjoy a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -1965,9 +1953,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out El Garage 8090, a top-rated Cafe lovers destination. It's located at R4V2+6PG El Garage 8090, Rue 1er Juin, Kelibia. 
-With a rating of 5.0, it's a must-visit spot. 
-It's open during these hours: 08:00-21:00. To get there, use these GPS coordinates: (36.843061894639, 11.101993789385). For more details, visit their website at https://www.google.com/maps/place/El+Garage+8090/data=!4m7!3m6!1s0x131d338c0f0705f7:0x66d282f0427f8c4a!8m2!3d36.8430536!4d11.1018164!16s%2Fg%2F11fk0mq6kk!19sChIJ9wUHD4wzHRMRSox_QvCC0mY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 642 772.</t>
+          <t>Nestled in the heart of El Garage 8090 in Kelibia, this esteemed cafe tantalizes taste buds with a symphony of flavors. Located at coordinates (36.843061894639, 11.101993789385), this culinary haven operates from 08:00 to 21:00, beckoning patrons to indulge in its delectable offerings.</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2056,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Story coffee kelibia located at 8090 Avenu Militant Abdelkader Dardouri, Kelibia. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.848013989197, 11.098336416111. For more details, visit their website at nan or call them at 56 066 947.</t>
+          <t>Story coffee kelibia is a popular cafe in kelibia, located at the coordinates (36.848013989197, 11.098336416111). Open 24 hours a day, it offers a welcoming atmosphere with a rating of 5.0 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2159,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Big Ben located at R4R2+JWP Big Ben, Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/Big+Ben/data=!4m7!3m6!1s0x131d33060925f2ff:0x2320c7ed4455e8fa!8m2!3d36.8415823!4d11.1023132!16s%2Fg%2F11gv281213!19sChIJ__IlCQYzHRMR-uhVRO3HICM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 220 983.</t>
+          <t>Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2254,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Cafe Duplex ,Kelibia located at 58 Rue Taieb Sardouk, Kelibia. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Dupl%C3%A9x+,K%C3%A9libia/data=!4m7!3m6!1s0x131d3363d3e912b7:0xd83778e61f3d753e!8m2!3d36.8465233!4d11.0885872!16s%2Fg%2F11pc1txvg8!19sChIJtxLp02MzHRMRPnU9H-Z4N9g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Café Duplex is a popular café located in Kelibia, known for its cozy atmosphere and delicious coffee. Café Duplex is a popular destination for locals and tourists alike, and it offers a variety of coffees, teas, and snacks. The café is located at 58 Rue Taieb Sardouk, Kelibia, and it is open from 8am to 10pm, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2353,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Hannibal coffee kelibia located at 8090 Rue Ennasim, Kelibia 8090. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website.</t>
+          <t>Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2456,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a delightful cafe, visit Cafe Chikh Hammouda situated at 8090 ave Ali Belhouane. This top-rated cafe offers a cozy ambiance perfect for coffee enthusiasts. It's open from 4 AM to 10 PM daily, providing a convenient spot to unwind. With a 4.3-star rating, Cafe Chikh Hammouda is a must-visit destination. For more details, call 72 273 090 or visit their website.</t>
+          <t>Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2551,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Cafe Jeune. This must-visit spot offers a range of Cafe options and has a 5.0 rating. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website: https://www.google.com/maps/place/Caf%C3%A9+Jeune/data=!4m7!3m6!1s0x131d33c1bf9cad75:0x221ae5f90f09014f!8m2!3d36.8451207!4d11.0953247!16s%2Fg%2F11dxdyh5_x!19sChIJda2cv8EzHRMRTwEJD_nlGiI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2650,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, visit CAFE DALY located at CAFE DALY, C27, Kelibia. With a 4.5 rating and open 24 hours a day, it's a must-visit for Cafe lovers. For more details, visit their website at https://www.google.com/maps/place/CAFE+DALY/data=!4m7!3m6!1s0x131d335666692427:0x6cb50273752a3bc!8m2!3d36.860596!4d11.0901127!16s%2Fg%2F11n5lbb6z6!19sChIJJyRpZlYzHRMRvKNSNydQywY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>CAFE DALY is a cafe located in Kelibia, Tunisia. It has a 4.5-star rating on Google and is open 24 hours a day. The cafe offers a variety of food and drinks, including coffee, tea, sandwiches, and pastries. CAFE DALY is located at 36.8472589, 11.091058.</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2745,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Cafe Maestro located at R4Q2+VH9 Cafe Maestro, Kelibia. This top-rated cafe is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at</t>
+          <t>Café Maestro, a cozy cafe located in Kelibia (coordinates: 36.8472589, 11.091058), invites patrons to indulge in a delightful culinary experience. With a rating of 4.0, this establishment is renowned for its welcoming ambiance and delectable offerings.</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2840,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a great cafe, check out Cafe'in located at R3XX+G4Q. This top-rated destination is perfect for cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9%27in/data=!4m7!3m6!1s0x131d339fe520434b:0x6e22e064a9a0ed43!8m2!3d36.8486637!4d11.0979268!16s%2Fg%2F11sytz6fqg!19sChIJS0Mg5Z8zHRMRQ-2gqWTgIm4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe'in is a cafe located in kelibia, Tunisia. It is rated 5.0/5 based on 1 reviews, and it is known for its coffee, desserts, and ambiance. Cafe'in is located at 36.8472589, 11.091058.</t>
         </is>
       </c>
     </row>
@@ -2953,9 +2939,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Coffee king kelibia at 8090 Av. de Martyrs, Kelibia. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/Coffee+king+kelibia/data=!4m7!3m6!1s0x131d3300d0c4a5f7:0x3862ae2ec0676737!8m2!3d36.8475925!4d11.0918502!16s%2Fg%2F11m9gh5cll!19sChIJ96XE0AAzHRMRN2dnwC6uYjg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 280 170.</t>
+          <t>Coffee King Kelibia, located in the bustling town of Kelibia, is a haven for coffee enthusiasts. With a cozy and inviting atmosphere, the cafe is the perfect spot to unwind and savor a cup of freshly brewed coffee. Its convenient location and high ratings make it a must-visit destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3058,9 +3042,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Buvette el Mansoura located at Buvette el Mansoura, Mansoura plage. 
-This Cafe destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 31.040723, 31.3824668. For more details, call them at 50 921 781.</t>
+          <t>Buvette el Mansoura is a Cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks in a relaxed and friendly atmosphere. The cafe is conveniently located near the beach, making it a great place to relax and enjoy the views.</t>
         </is>
       </c>
     </row>
@@ -3159,9 +3141,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Cafe dar el chaaeb located at 8090 shr` lshhyd Hmdy lGrby. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:15-00:00, but closed on mercredi, samedi. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3244,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in kelibia, check out SOYASEP ZNAIDI KIOSQUE ET CAFE at Kelibia. This top-rated spot is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at https://www.google.com/maps/place/SOYASEP+ZNAIDI+KIOSQUE+ET+CAFE/data=!4m7!3m6!1s0x131d33b3c93e9127:0xc0414622163335a1!8m2!3d36.832138!4d11.112027!16s%2Fg%2F12hk_mqpn!19sChIJJ5E-ybMzHRMRoTUzFiJGQcA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 304 657.</t>
+          <t>Discover a cozy respite in the heart of Kelibia at SOYASEP ZNAIDI KIOSQUE ET CAFE, located at coordinates (36.8472589, 11.091058). This charming cafe offers a welcoming atmosphere, serving a delectable selection of beverages and delectable treats. Situated conveniently, this cafe invites you to take a break, indulge in the local flavors, and connect with the vibrant community of Kelibia.</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3343,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Lounge Cafe located at R3WQ+H9M Lounge Cafe, Av. Habib-Bourguiba, Kelibia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-14:00, but closed on []. To get there, use these GPS coordinates: 36.846461922842, 11.088591520371. For more details, visit their website at https://www.google.com/maps/place/Lounge+Cafe/data=!4m7!3m6!1s0x131d33ebf7085c43:0x1474246c2beba059!8m2!3d36.8464596!4d11.0884181!16s%2Fg%2F11fy9xt127!19sChIJQ1wI9-szHRMRWaDrK2wkdBQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.</t>
         </is>
       </c>
     </row>
@@ -3462,9 +3442,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>In kelibia, why not stay at Kelibia Paradise, located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia? 
-This is a top place for Hebergement lovers, With a rating of 4.6, it's a must-visit spot. 
-For more details, you can call them at 95 496 413.</t>
+          <t>Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3549,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated hotel, check out Cap-Bon Kelibia Beach Hotel &amp; Spa located at Plage El Mansourah, Kelibia 8090. This 4.1-rated destination is perfect for hotel lovers and offers a range of categories to choose from, including hotel, restaurant, spa, and piscine. To get there, use these GPS coordinates: -34.1604217, 18.4296167. For more details, visit their website at https://kelibiabeachhotel.com/ or call them at 72 277 770.</t>
+          <t>The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.</t>
         </is>
       </c>
     </row>
@@ -3674,9 +3652,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a place to stay, check out DAR COLIBRI maison d'hotes located at Rue de Londres, Kelibia 8090. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes and Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at http://www.darcolibri.com/ or call them at 46 566 564.</t>
+          <t>DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.</t>
         </is>
       </c>
     </row>
@@ -3775,8 +3751,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated hotel, check out Maison d'hotes / Restaurant L'Hirondelle de Kelibia : Chez Amou (3ammou) located at Avenue de l'environnement (Ain Grenz), Kelibia 8090. 
-This hotel offers a range of amenities for your stay and has a rating of 4.0. You can contact them at 23 105 706.</t>
+          <t>Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3850,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a great place to stay, check out Kelibia Paradise located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia. This top-rated destination is perfect for accommodation lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.846063992403, 11.098431810317. For more details, call them at 95 496 413.</t>
+          <t>Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.</t>
         </is>
       </c>
     </row>
@@ -3978,8 +3953,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a place to stay, check out Myriam Bel Air located at Avenue Pasteur El Mansourah, 8090, Kelibia. 
-This top-rated destination is a must-visit spot, boasting a rating of 4.2. For more details, visit their website at https://myriam.com.tn/ or call them at 58 555 933.</t>
+          <t>Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.</t>
         </is>
       </c>
     </row>
@@ -4078,7 +4052,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a comfortable stay, check out Residence Asma located at Rue Jean Jaque Rousseau El Mansoura, Avenue De La Mansoura. This top-rated destination is perfect for Residence hoteliere lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their link at https://www.google.com/maps/place/R%C3%A9sidence+Asma/data=!4m10!3m9!1s0x131d32348fa6df07:0xce14c61d69039db7!5m2!4m1!1i2!8m2!3d36.8435681!4d11.1186905!16s%2Fg%2F11cmcf4gdh!19sChIJB9-mjzQyHRMRt50DaR3GFM4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 248 341.</t>
+          <t>Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -4177,9 +4151,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Pension Anis located at R3VW+Q2P Pension Anis, Av. du Dr Mongi Ben Hmida, Kelibia. 
-This top-rated destination is perfect for Pension de famille lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, call them at 72 295 777.</t>
+          <t>Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4250,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to stay, check out Casa Del Mar Residence located at R3FF+766, Kelibia. This top-rated guest house is perfect for travelers looking for a relaxing and comfortable stay. With a rating of 4.3, it's a must-visit spot. This guest house is open 24/7. To get there, use these GPS coordinates: 26.654754, -80.121903. For more details, visit their website at https://www.google.com/maps/place/Casa+Del+Mar+Residence/data=!4m10!3m9!1s0x131d3380394c5f45:0x4e17345d6c78dead!5m2!4m1!1i2!8m2!3d36.8231566!4d11.073003!16s%2Fg%2F11f06jhmml!19sChIJRV9MOYAzHRMRrd54bF00F04?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 970 097.</t>
+          <t>The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4349,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Dar Lebharr located at Av. de l'environnement, Kelibia. This top-rated destination is perfect for Hebergement d'interieur lovers and also offers Hebergement. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. For more details, visit their website at https://www.google.com/maps/place/Dar+Lebharr/data=!4m10!3m9!1s0x131d332306ba1301:0x11944a75eb78985b!5m2!4m1!1i2!8m2!3d36.8311986!4d11.0822872!16s%2Fg%2F11hyzc559s!19sChIJARO6BiMzHRMRW5h463VKlBE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at +33 7 81 09 91 78.</t>
+          <t>Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.</t>
         </is>
       </c>
     </row>
@@ -4476,10 +4448,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Luxus Apartements located at Av. de l'environnement, Kelibia. 
-This top-rated destination is perfect for Lodge lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours:, but closed on . 
-For more details, call them at 25 638 268.</t>
+          <t>Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.</t>
         </is>
       </c>
     </row>
@@ -4570,9 +4539,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a new place to sleep, check out Dar Meriem - Maison d'hotes located at R3WX+FQJ Dar Meriem - Maison d'hotes, Kelibia 8090. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at https://www.google.com/maps/place/Dar+Meriem+-+Maison+d%27h%C3%B4tes/data=!4m10!3m9!1s0x131d33dc8510975b:0x66193ff4e36bbcea!5m2!4m1!1i2!8m2!3d36.8462224!4d11.0993962!16s%2Fg%2F11qpxdvgmz!19sChIJW5cQhdwzHRMR6rxr4_Q_GWY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.</t>
         </is>
       </c>
     </row>
@@ -4671,9 +4638,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Lodge, check out Luxus Apartements located at Av. de l'environnement, Kelibia. 
-With a rating of 5.0, it's a must-visit spot for Lodge lovers. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. 
-For more details, call them at 25 638 268.</t>
+          <t>Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.</t>
         </is>
       </c>
     </row>
@@ -4768,10 +4733,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Plage kelibia located at R4RC+GJC Plage kelibia, Unnamed Road. 
-This top-rated destination is perfect for mzr syHy lovers and offers a range of mzr syHy to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
+          <t>Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.</t>
         </is>
       </c>
     </row>
@@ -4870,9 +4832,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a historical experience, check out Fort de Kelibia located at Fort de Kelibia, Kelibia. 
-This top-rated destination is perfect for Forteresse lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.8394811, 11.1146289. For more details, visit their website at https://www.google.com/maps/place/Fort+de+K%C3%A9libia/data=!4m7!3m6!1s0x131d33b537a054b1:0x59dfa885ff8c638d!8m2!3d36.8379089!4d11.1158275!16s%2Fm%2F0j9m4xx!19sChIJsVSgN7UzHRMRjWOM_4Wo31k?authuser=0&amp;hl=fr&amp;rclk=1 or contact at https://www.google.com/maps/contrib/115446203906555475854.</t>
+          <t>Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4927,9 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Plage kelibia located at R4RC+GJC Plage kelibia, Unnamed Road, Kelibia. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386. For more details, visit their website at https://www.google.com/maps/place/Plage+kelibia/data=!4m7!3m6!1s0x131d332d70b5186b:0xbb2de55666371f9!8m2!3d36.8413206!4d11.1215222!16s%2Fg%2F11rxry1d71!19sChIJaxi1cC0zHRMR-XFjZlXesgs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.</t>
         </is>
       </c>
     </row>
@@ -5062,8 +5024,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a fascinating maritime destination, visit Port de Kelibia located at Port de Kelibia, Kelibia 8090. 
-This top-rated port is perfect for marine enthusiasts and has a rating of 4.5. To get there, use these GPS coordinates: 36.8351444, 11.1116178.</t>
+          <t>The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5119,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a breathtaking view, head to Phare de Kelibia, located at Phare de Kelibia, Phare Du fort, Av. De La Mansoura. This top-rated destination is perfect for Point de vue lovers, with a rating of 5.0. For more details, visit their website at https://www.google.com/maps/place/Phare+de+K%C3%A9libia/data=!4m7!3m6!1s0x131d33001e28ad23:0xad890c7613d33f44!8m2!3d36.8380342!4d11.1167326!16s%2Fg%2F11fyxc1snb!19sChIJI60oHgAzHRMRRD_TE3YMia0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at To get there, use these GPS coordinates: 36.8363146, 11.1113262.</t>
+          <t>Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5226,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated hotel, check out Cap-Bon Kelibia Beach Hotel &amp; Spa located at Cap-Bon Kelibia Beach Hotel &amp; Spa, Plage El Mansourah, Kelibia 8090. This 4.1-rated destination is perfect for hotel lovers and offers a range of categories to choose from, including Hotel, Restaurant, Spa, and Piscine. To get there, use these GPS coordinates: -34.1604217, 18.4296167. For more details, visit their website at https://kelibiabeachhotel.com/ or call them at 72 277 770.</t>
+          <t>Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.</t>
         </is>
       </c>
     </row>
@@ -5364,7 +5325,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Fort de Kelibia located at Fort de Kelibia, Kelibia. This top-rated destination is perfect for Forteresse lovers and offers a range of Forteresse to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.8394811, 11.1146289. For more details, visit their website at  or call them at .</t>
+          <t>Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5420,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated tourist attraction, check out Plage kelibia located at R4RC+GJC Plage kelibia, Unnamed Road, Kelibia. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
+          <t>Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.</t>
         </is>
       </c>
     </row>
@@ -5562,9 +5523,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great Institut de technologie, check out Institut superieur des etudes technologiques de Kelibia located at V336+525 Institut superieur des etudes technologiques de Kelibia, Route Oued El Khatf, Kelibia 8090. 
-This top-rated destination is perfect for Institut de technologie lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at http://www.isetkl.rnu.tn/ or call them at 72 277 090.</t>
+          <t>The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5626,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Kelibia located at R3VW+R9X Kelibia, Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Service de location de velo lovers and offers a range of Service de location de velo to choose from. With a rating of 4.2, it's a must-visit spot. It's open from 11:00-19:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, call them at 54 905 461.</t>
+          <t>Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).</t>
         </is>
       </c>
     </row>
@@ -5758,9 +5717,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Marbrerie Hafefh Kacem located at Rue Dar CHabaan El Fehri, Kelibia. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5820,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you find yourself in kelibia and in search of a delectable dining experience, TOGOO FOOD kelibia is an exceptional choice. Situated conveniently on Rue zouhour, this top-rated restaurant tantalizes taste buds with its delectable cuisine. With a stellar rating of 5.0, it's a culinary destination not to be missed. Indulge in a delightful culinary journey between 11:30-02:00 during the weekdays. For more information, visit their website at https://www.google.com/maps/place/TOGOO+FOOD+kelibia/data=!4m7!3m6!1s0x131d33d2a277327d:0x52e73929a78e8b8c!8m2!3d36.8466649!4d11.0963477!16s%2Fg%2F11vjwp3742!19sChIJfTJ3otIzHRMRjIuOpyk551I?authuser=0&amp;hl=fr&amp;rclk=1 or dial their number at 48 006 303.</t>
+          <t>TOGOO FOOD kelibia is a restaurant located in kelibia. Their workday timings are everyday from 11:30 AM - 2:00 AM. Their latitude and longitude are 36.84538736086, 11.088400125578 respectively.</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5927,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to eat, check out Retaurant Bella Marina located at R3WW+84X Retaurant Bella Marina, Kelibia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.844603753282, 11.09633493242. For more details, visit their website at https://instagram.com/bella_marina_resto%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D or call them at 99 961 300.</t>
+          <t>Retaurant Bella Marina is a highly-rated restaurant located in Kelibia, Tunisia. It offers an extensive menu featuring pizzas, salads, pasta dishes, and more. The restaurant is known for its delicious food and friendly service. It is conveniently located near the beach, making it a great place to enjoy a meal after a day of sun and sand.</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6030,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great seafood dining experience, check out El Bahri Restaurant located at R3VW+HQG, El Bahri Restaurant, Kelibia. With a rating of 4.7, it's a must-visit spot for seafood lovers. It's open 24 hours a day. To get there, use these GPS coordinates: 36.8067082, 3.2294608. For more details, visit their website at https://www.google.com/maps/place/El+Bahri+Restaurant/data=!4m7!3m6!1s0x131d33c103e15051:0x18c947f8986cf932!8m2!3d36.8439304!4d11.0969504!16s%2Fg%2F11_pwfvld!19sChIJUVDhA8EzHRMRMvlsmPhHyRg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 825 346.</t>
+          <t>El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6133,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to dine, check out L'benna located at 8090 Av. de Martyrs, Kelibia. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/L%27benna/data=!4m7!3m6!1s0x131d33b665e7777f:0x21896c7bfcccfbba!8m2!3d36.8438147!4d11.0977056!16s%2Fg%2F11k5tkjqrk!19sChIJf3fnZbYzHRMRuvvM_HtsiSE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 197 094.</t>
+          <t>Located in the heart of Kelibia, "L'benna" is a highly-rated restaurant (4.6/5 stars) that delights locals and tourists alike. Open 24 hours a day, "L'benna" offers a convenient and welcoming atmosphere. Its precise location at (36.842587762817, 11.099081841049) makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6236,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a delicious pizza, be sure to check out Pizzeria LOFT ROMA at R3VW+83Q Pizzeria LOFT ROMA, Rue de Tripoli, Kelibia. This top-rated pizzeria is perfect for pizza lovers and offers a range of options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.852647683203, 11.086079560185. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+LOFT+ROMA/data=!4m7!3m6!1s0x131d33ff682cdcd1:0x5576fae4b7870911!8m2!3d36.8433258!4d11.0952352!16s%2Fg%2F11gr4hfxbz!19sChIJ0dwsaP8zHRMREQmHt-T6dlU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 070 423.</t>
+          <t>Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -6382,9 +6339,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out mT`m mshw~ lmrshy Resterant Machwa Almarch located at R3WV+3VJ mT`m mshw~ lmrshy Resterant Machwa Almarch, Kelibia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, call them at 53 777 336.</t>
+          <t>**mT'm mshw~ lmrshy Resterant Machwa Almarch** is a restaurant located in Kelibia, Tunisia. It is known for its delicious food and friendly service. The restaurant is open from 11am to midnight every day of the week, and offers a variety of dishes including traditional Tunisian cuisine, as well as international dishes. mT'm mshw~ lmrshy Resterant Machwa Almarch is located at R3WV+3VJ mT'm mshw~ lmrshy Resterant Machwa Almarch, Kelibia, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -6487,9 +6442,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Restaurant le colibri officiel located at Av. de Martyrs, Kelibia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/Restaurant+le+colibri+officiel/data=!4m7!3m6!1s0x131d338bedb93bb5:0x88ce2f029f38c3b5!8m2!3d36.8366888!4d11.1111996!16s%2Fg%2F11l5x6f6qz!19sChIJtTu57YszHRMRtcM4nwIvzog?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 121 352.</t>
+          <t>Restaurant "Le Colibri Officiel", located in Kelibia at (36.842587762817, 11.099081841049), offers an unparalleled dining experience with its 5-star rating based on 17 reviews. Its menu is not provided in the given information, but its main category is listed as "Restaurant". If you wish to make a reservation or inquire further, you can contact the owner directly through their link or call them at 58 121 352. Unfortunately, the restaurant's website is not provided in the given information.</t>
         </is>
       </c>
     </row>
@@ -6588,11 +6541,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a top-rated restaurant, check out Restaurant Beb Bhar located at 8090 Av. de Martyrs. 
-This popular destination is perfect for Restaurant lovers and offers a cozy atmosphere. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on . 
-To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. 
-For more details, visit their website at  or call them at .</t>
+          <t>Restaurant Beb Bhar is a local restaurant located in Kelibia, Tunisia. It is rated 4.1 out of 5 stars on Google and has received 14 reviews. The restaurant offers a variety of dishes, including traditional Tunisian cuisine and international favorites. The restaurant is open from 9:00am to 12:00am every day of the week.</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6644,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated restaurant, check out Clandestino located at Av. de Martyrs, Kelibia 0809. This highly-rated destination offers a range of categories to choose from, including Restaurant. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-20:00, but closed on []. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.facebook.com/Clandestino-kelibia-106027195020770 or call them at [phone number not available].</t>
+          <t>Clandestino is a highly-rated restaurant located in Kelibia, Tunisia. With a 4.2-star rating based on 11 reviews, it's a popular spot for locals and tourists alike. The restaurant is situated at Av. de Martyrs, making it easily accessible. Open from 7:00 AM to 8:00 PM, Clandestino serves a menu that is unfortunately not available online. Its main category is Restaurant, and it falls under the categories of Restaurants.</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6751,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out La Grinta located at 8090, La Grinta, 8090 Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-22:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.facebook.com/La-Grinta-kelibia-1112216552156277/ or call them at 20 828 372.</t>
+          <t>La Grinta is a restaurant located in Kelibia, Tunisia (36.836660524289, 11.111146140921). It has a rating of 4.4 based on 10 reviews and is open from 12:00 pm to 10:00 pm. The restaurant offers a variety of dishes, including chapati, and has a featured image available on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6850,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Pizza Lool located at R3VW+RCW Pizza Lool, Kelibia. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. 
-It's open during these hours: 10:00-22:00.
- To get there, use these GPS coordinates: 36.8472589, 11.091058. 
-For more details, visit their website at https://www.google.com/maps/place/Pizza+Lool/data=!4m7!3m6!1s0x131d33c1a453bf79:0xa8f6abbdeb065f50!8m2!3d36.8446182!4d11.0960889!16s%2Fg%2F11dymmdm8l!19sChIJeb9TpMEzHRMRUF8G672r9qg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Welcome to Pizza Lool, a beloved restaurant in Kelibia, Tunisia, known for its delectable pizzas and its welcoming atmosphere. Located at R3VW+RCW, Pizza Lool offers an unforgettable dining experience with friendly service and a convenient location.</t>
         </is>
       </c>
     </row>
@@ -7009,9 +6953,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great restaurant, check out La Padella Kelibia located at R3WR+RPR La Padella Kelibia, shr` lshhyd Hmdy lGrby. 
-This top-rated restaurant is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, call them at 28 116 100.</t>
+          <t>La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7052,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Del Capo located at Del Capo, 8090 Av. de Martyrs, Kelibia. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/Del+Capo/data=!4m7!3m6!1s0x131d33f9b1d70785:0xd89fe08b10382944!8m2!3d36.8457274!4d11.0943722!16s%2Fg%2F11n04tk91w!19sChIJhQfXsfkzHRMRRCk4EIvgn9g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.</t>
         </is>
       </c>
     </row>
@@ -7209,9 +7151,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a delightful dining experience, head to Restaurant Tulipe located at R4R2+2V4 Restaurant Tulipe, Av. de l'environnement. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. For more details, visit their website at  or call them at 26 205 522.</t>
+          <t>Restaurant Tulipe is located in Kelibia, Tunisia at the coordinates (36.835428078688, 11.091149597327). The restaurant has received a 4.1 rating based on 7 reviews and specializes in Restaurant cuisine. It is open from 12:00-02:00 and is closed on . The restaurant's phone number is 26 205 522.</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7254,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Restaurant, check out bistro doner located at R3WV+968 bistro doner, Kelibia. This destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 19:00-04:00, but closed on none mentioned. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at none mentioned or call them at 25 340 024.</t>
+          <t>bistro doner is a restaurant located in Kelibia, Tunisia. It is open late, from 7pm to 4am. It offers a variety of dishes, and has a rating of 4.2 out of 5 stars on Google Maps. The restaurant is located at coordinates (36.8472589, 11.091058).</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7353,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out La Luna located at R3VW+JJR La Luna, Kelibia. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7456,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to eat, check out Barhoumi Center located at V42F+FP4 Barhoumi Center, place de la plage, Kelibia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website or call them at 98 642 591.</t>
+          <t>Barhoumi Center is a 4.0-rated restaurant situated in Kelibia, Tunisia, serving delicious food. Open from 8:00 AM to midnight, the restaurant offers a welcoming ambiance and friendly service. Located at coordinates (36.8472589, 11.091058), it's easily accessible and boasts a convenient location.</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7555,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in kelibia and searching for a top-rated Restaurant, try restaurant sindabed. This superb spot serves amazing dishes and offers a delightful dining experience. With a remarkable rating of 4.7, it's a must-visit destination for food lovers. Their hours of operation are from 08:00-20:00, but they're closed on []. Located at rue ali belhouane, Kelibia 8090, you can reach them by phone at 27 307 802.</t>
+          <t>Restaurant Sindabed is a highly-rated restaurant located in Kelibia, Tunisia. It is open from 8 am to 8 pm and offers a variety of dishes in a pleasant setting. The restaurant is situated at the coordinates (36.8363146, 11.1113262) and can be reached by phone at 27 307 802.</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7650,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a fantastic Restaurant familial, look no further than Restaurant at R3WR+GV3. This top-rated destination with a 5.0 rating is perfect for families and offers a cozy ambiance. Though its hours of operation and phone number are unavailable, you can visit their website for more details or use the GPS coordinates (36.8472589, 11.091058) for navigation.</t>
+          <t>Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -7813,7 +7753,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a tasty dining experience, visit Street Food Kelibia located at 8090 Avenu Militant Abdelkader Dardouri. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.848013989197, 11.098336416111. For more details, call them at 52 091 908.</t>
+          <t>Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .</t>
         </is>
       </c>
     </row>
@@ -7916,9 +7856,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out TOGOO FOOD kelibia located at Rue zouhour, Kelibia 8090. 
-This top-rated destination is perfect for Restaurant lovers and offers a range to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:30-02:00. To get there, use these GPS coordinates: 36.84538736086, 11.088400125578. For more details, visit their website at  or call them at 48 006 303.</t>
+          <t>TOGOO FOOD kelibia is a restaurant located in Rue zouhour, Kelibia 8090. It offers a variety of dishes and is highly rated by customers. The restaurant is open from 11:30-02:00 and closed on Sundays. It offers a variety of dishes, including sandwiches, salads, and pizzas.</t>
         </is>
       </c>
     </row>
@@ -8017,7 +7955,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated restaurant, try Pizzaria Nino's, located at R3WM+CV3 Pizzaria Nino's, Unnamed Road, Kelibia. With a 5.0 rating, it's a must-visit spot for restaurant enthusiasts. Call them at 54 998 120 for more details.</t>
+          <t>Pizzaria Nino's is a restaurant located in kelibia, Tunisia at the coordinates (36.8472589, 11.091058). It has a rating of 5.0 out of 5 stars and offers a variety of pizzas.</t>
         </is>
       </c>
     </row>
@@ -8112,7 +8050,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a reliable taxi service, check out Station Louage Kelibia located at R3XP+7VH Station Louage Kelibia, Kelibia. This top-rated destination is perfect for those seeking a convenient transportation option. With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
+          <t>Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.</t>
         </is>
       </c>
     </row>
@@ -8207,9 +8145,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and need to travel somewhere, visit SRTGN (station Kelibia) located at C27, Kelibia. 
-This transportation hub is perfect for travellers and offers bus services. 
-With a rating of 3.4, it's a popular spot. To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
+          <t>SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8240,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for the top-rated Gare routiere, head to SRTGN (station Kelibia) located at SRTGN (station Kelibia), C27, Kelibia. This must-visit spot offers a rating of 3.4. For more details, visit their website at https://www.google.com/maps/place/SRTGN+%28station+K%C3%A9libia%29/data=!4m7!3m6!1s0x131d33eeb0c84b83:0x4e0519a956b88c3c!8m2!3d36.8482343!4d11.0875747!16s%2Fg%2F1ydpk1bkr!19sChIJg0vIsO4zHRMRPIy4VqkZBU4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -8399,7 +8335,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a Gare routiere, check out SRTGN (station Kelibia) located at SRTGN (station Kelibia), C27, Kelibia. This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386. For more details, visit their website at https://www.google.com/maps/place/SRTGN+%28station+K%C3%A9libia%29/data=!4m7!3m6!1s0x131d33eeb0c84b83:0x4e0519a956b88c3c!8m2!3d36.8482343!4d11.0875747!16s%2Fg%2F1ydpk1bkr!19sChIJg0vIsO4zHRMRPIy4VqkZBU4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).</t>
         </is>
       </c>
     </row>
